--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>CLASIF.EQUIP(ID)</t>
   </si>
@@ -47,6 +47,15 @@
     <t>hola crayola</t>
   </si>
   <si>
+    <t>power300</t>
+  </si>
+  <si>
+    <t>antena</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
     <t>Num de Factura</t>
   </si>
   <si>
@@ -120,6 +129,75 @@
   </si>
   <si>
     <t>22</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2018-11-17</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>haber haber</t>
+  </si>
+  <si>
+    <t>2018-11-10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2018-11-03</t>
+  </si>
+  <si>
+    <t>Esta bien bonito</t>
+  </si>
+  <si>
+    <t>2018-11-16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>2018-11-02</t>
+  </si>
+  <si>
+    <t>instaLACION</t>
+  </si>
+  <si>
+    <t>5253</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>01486513847</t>
+  </si>
+  <si>
+    <t>ewg</t>
+  </si>
+  <si>
+    <t>23131614510230</t>
   </si>
 </sst>
 </file>
@@ -600,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -653,10 +731,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -677,6 +755,46 @@
       </c>
       <c r="F3" s="7" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -712,33 +830,33 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="33.75" r="1" s="3" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -750,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -785,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -805,39 +923,39 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="33" r="1" s="3" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -849,24 +967,24 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -878,16 +996,219 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Desktop\tutorial\mysite\polls\static\polls\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7680"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="inventario" sheetId="1" r:id="rId1"/>
-    <sheet name="Entradas" sheetId="2" r:id="rId2"/>
-    <sheet name="Salidas" sheetId="3" r:id="rId3"/>
+    <sheet name="inventario" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Entradas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Salidas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Inventario">Tabla31[]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>CLASIF.EQUIP(ID)</t>
   </si>
@@ -42,6 +36,24 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Ford Focus</t>
   </si>
   <si>
     <t>Num de Factura</t>
@@ -80,19 +92,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,39 +121,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -174,7 +187,7 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
+      <numFmt formatCode=";;;" numFmtId="164"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
@@ -231,67 +244,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla31" displayName="Tabla31" ref="A1:F3" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="27" displayName="Tabla31" headerRowCount="1" headerRowDxfId="28" id="1" name="Tabla31" ref="A1:F3" totalsRowDxfId="26">
   <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" name="Descripcion" dataDxfId="24"/>
-    <tableColumn id="3" name="Existencias Iniciales" dataDxfId="23"/>
-    <tableColumn id="4" name="Entradas" dataDxfId="22"/>
-    <tableColumn id="5" name="Salidas" dataDxfId="21"/>
-    <tableColumn id="6" name="Stock" totalsRowFunction="sum" dataDxfId="20"/>
+    <tableColumn dataDxfId="25" id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total"/>
+    <tableColumn dataDxfId="24" id="2" name="Descripcion"/>
+    <tableColumn dataDxfId="23" id="3" name="Existencias Iniciales"/>
+    <tableColumn dataDxfId="22" id="4" name="Entradas"/>
+    <tableColumn dataDxfId="21" id="5" name="Salidas"/>
+    <tableColumn dataDxfId="20" id="6" name="Stock" totalsRowFunction="sum"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Entradas" displayName="Entradas" ref="A1:G3" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="18" displayName="Entradas" headerRowCount="1" headerRowDxfId="19" id="2" name="Entradas" ref="A1:G3">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Num de Factura" totalsRowLabel="Total" dataDxfId="17"/>
-    <tableColumn id="2" name="Fecha" dataDxfId="16"/>
-    <tableColumn id="3" name="Codigo de Producto" dataDxfId="15"/>
-    <tableColumn id="4" name="Descripcion" dataDxfId="14"/>
-    <tableColumn id="5" name="Cantidad" totalsRowFunction="count" dataDxfId="13"/>
-    <tableColumn id="6" name="SERIE" dataDxfId="12"/>
-    <tableColumn id="7" name="OBSERVACIONES" dataDxfId="11"/>
+    <tableColumn dataDxfId="17" id="1" name="Num de Factura" totalsRowLabel="Total"/>
+    <tableColumn dataDxfId="16" id="2" name="Fecha"/>
+    <tableColumn dataDxfId="15" id="3" name="Codigo de Producto"/>
+    <tableColumn dataDxfId="14" id="4" name="Descripcion"/>
+    <tableColumn dataDxfId="13" id="5" name="Cantidad" totalsRowFunction="count"/>
+    <tableColumn dataDxfId="12" id="6" name="SERIE"/>
+    <tableColumn dataDxfId="11" id="7" name="OBSERVACIONES"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight12" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Salidas" displayName="Salidas" ref="A1:I3" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Salidas" headerRowCount="1" headerRowDxfId="9" id="3" name="Salidas" ref="A1:I3" totalsRowShown="0">
   <autoFilter ref="A1:I3"/>
   <sortState ref="A2:I3">
     <sortCondition ref="B1:B3"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Num de Factura" dataDxfId="8"/>
-    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="3" name="Codigo Producto" dataDxfId="6"/>
-    <tableColumn id="4" name="Descripcion(Producto)" dataDxfId="5"/>
-    <tableColumn id="5" name="Cantidad" dataDxfId="4"/>
-    <tableColumn id="6" name="OBSERVACIONES" dataDxfId="3"/>
-    <tableColumn id="7" name="DE O P/CLIENTE" dataDxfId="2"/>
-    <tableColumn id="8" name="TECNICO RECIBIO Y FIRMO SALIDA" dataDxfId="1"/>
-    <tableColumn id="9" name="Serie" dataDxfId="0"/>
+    <tableColumn dataDxfId="8" id="1" name="Num de Factura"/>
+    <tableColumn dataDxfId="7" id="2" name="Fecha"/>
+    <tableColumn dataDxfId="6" id="3" name="Codigo Producto"/>
+    <tableColumn dataDxfId="5" id="4" name="Descripcion(Producto)"/>
+    <tableColumn dataDxfId="4" id="5" name="Cantidad"/>
+    <tableColumn dataDxfId="3" id="6" name="OBSERVACIONES"/>
+    <tableColumn dataDxfId="2" id="7" name="DE O P/CLIENTE"/>
+    <tableColumn dataDxfId="1" id="8" name="TECNICO RECIBIO Y FIRMO SALIDA"/>
+    <tableColumn dataDxfId="0" id="9" name="Serie"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -557,27 +562,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="8" customWidth="1"/>
-    <col min="7" max="8" width="12" style="7" customWidth="1"/>
-    <col min="9" max="58" width="11.42578125" style="7" customWidth="1"/>
-    <col min="59" max="16384" width="11.42578125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="6" width="20.140625"/>
+    <col customWidth="1" max="2" min="2" style="8" width="39.85546875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="20.140625"/>
+    <col customWidth="1" max="4" min="4" style="8" width="12"/>
+    <col customWidth="1" max="5" min="5" style="8" width="14.42578125"/>
+    <col customWidth="1" max="6" min="6" style="8" width="16.140625"/>
+    <col customWidth="1" max="8" min="7" style="7" width="12"/>
+    <col customWidth="1" max="58" min="9" style="7" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="59" style="7" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="6" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -597,40 +606,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8000</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -639,72 +676,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="5" width="14.5703125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="17.85546875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="22.5703125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="17.28515625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="15.28515625"/>
+    <col customWidth="1" max="7" min="7" style="5" width="15.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="3" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="9" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Solo Numeros" error="Esta celda solo acepta numeros" sqref="A1:A4 A7:A9 A11:A1048576"/>
+    <dataValidation allowBlank="0" error="Esta celda solo acepta numeros" errorTitle="Solo Numeros" showErrorMessage="1" showInputMessage="1" sqref="A1:A4 A7:A9 A11:A1048576"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -712,151 +753,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="17.5703125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="14.28515625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="21.28515625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="21.140625"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15.140625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="27.7109375"/>
+    <col customWidth="1" max="7" min="7" style="5" width="26.85546875"/>
+    <col customWidth="1" max="8" min="8" style="5" width="31.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33" r="1" s="3" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="10"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="10" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:D1048576 D1 D3">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Desktop\tutorial\mysite\polls\static\polls\Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="inventario" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Entradas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Salidas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="inventario" sheetId="1" r:id="rId1"/>
+    <sheet name="Entradas" sheetId="2" r:id="rId2"/>
+    <sheet name="Salidas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Inventario">Tabla31[]</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>CLASIF.EQUIP(ID)</t>
   </si>
@@ -92,20 +98,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,39 +126,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -187,7 +192,7 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt formatCode=";;;" numFmtId="164"/>
+      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
@@ -244,59 +249,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="27" displayName="Tabla31" headerRowCount="1" headerRowDxfId="28" id="1" name="Tabla31" ref="A1:F3" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla31" displayName="Tabla31" ref="A1:F3" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn dataDxfId="25" id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total"/>
-    <tableColumn dataDxfId="24" id="2" name="Descripcion"/>
-    <tableColumn dataDxfId="23" id="3" name="Existencias Iniciales"/>
-    <tableColumn dataDxfId="22" id="4" name="Entradas"/>
-    <tableColumn dataDxfId="21" id="5" name="Salidas"/>
-    <tableColumn dataDxfId="20" id="6" name="Stock" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="2" name="Descripcion" dataDxfId="24"/>
+    <tableColumn id="3" name="Existencias Iniciales" dataDxfId="23"/>
+    <tableColumn id="4" name="Entradas" dataDxfId="22"/>
+    <tableColumn id="5" name="Salidas" dataDxfId="21"/>
+    <tableColumn id="6" name="Stock" totalsRowFunction="sum" dataDxfId="20"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="18" displayName="Entradas" headerRowCount="1" headerRowDxfId="19" id="2" name="Entradas" ref="A1:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Entradas" displayName="Entradas" ref="A1:G3" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn dataDxfId="17" id="1" name="Num de Factura" totalsRowLabel="Total"/>
-    <tableColumn dataDxfId="16" id="2" name="Fecha"/>
-    <tableColumn dataDxfId="15" id="3" name="Codigo de Producto"/>
-    <tableColumn dataDxfId="14" id="4" name="Descripcion"/>
-    <tableColumn dataDxfId="13" id="5" name="Cantidad" totalsRowFunction="count"/>
-    <tableColumn dataDxfId="12" id="6" name="SERIE"/>
-    <tableColumn dataDxfId="11" id="7" name="OBSERVACIONES"/>
+    <tableColumn id="1" name="Num de Factura" totalsRowLabel="Total" dataDxfId="17"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="16"/>
+    <tableColumn id="3" name="Codigo de Producto" dataDxfId="15"/>
+    <tableColumn id="4" name="Descripcion" dataDxfId="14"/>
+    <tableColumn id="5" name="Cantidad" totalsRowFunction="count" dataDxfId="13"/>
+    <tableColumn id="6" name="SERIE" dataDxfId="12"/>
+    <tableColumn id="7" name="OBSERVACIONES" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Salidas" headerRowCount="1" headerRowDxfId="9" id="3" name="Salidas" ref="A1:I3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Salidas" displayName="Salidas" ref="A1:I3" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I3"/>
   <sortState ref="A2:I3">
     <sortCondition ref="B1:B3"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn dataDxfId="8" id="1" name="Num de Factura"/>
-    <tableColumn dataDxfId="7" id="2" name="Fecha"/>
-    <tableColumn dataDxfId="6" id="3" name="Codigo Producto"/>
-    <tableColumn dataDxfId="5" id="4" name="Descripcion(Producto)"/>
-    <tableColumn dataDxfId="4" id="5" name="Cantidad"/>
-    <tableColumn dataDxfId="3" id="6" name="OBSERVACIONES"/>
-    <tableColumn dataDxfId="2" id="7" name="DE O P/CLIENTE"/>
-    <tableColumn dataDxfId="1" id="8" name="TECNICO RECIBIO Y FIRMO SALIDA"/>
-    <tableColumn dataDxfId="0" id="9" name="Serie"/>
+    <tableColumn id="1" name="Num de Factura" dataDxfId="8"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="3" name="Codigo Producto" dataDxfId="6"/>
+    <tableColumn id="4" name="Descripcion(Producto)" dataDxfId="5"/>
+    <tableColumn id="5" name="Cantidad" dataDxfId="4"/>
+    <tableColumn id="6" name="OBSERVACIONES" dataDxfId="3"/>
+    <tableColumn id="7" name="DE O P/CLIENTE" dataDxfId="2"/>
+    <tableColumn id="8" name="TECNICO RECIBIO Y FIRMO SALIDA" dataDxfId="1"/>
+    <tableColumn id="9" name="Serie" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -562,31 +575,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="20.140625"/>
-    <col customWidth="1" max="2" min="2" style="8" width="39.85546875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="20.140625"/>
-    <col customWidth="1" max="4" min="4" style="8" width="12"/>
-    <col customWidth="1" max="5" min="5" style="8" width="14.42578125"/>
-    <col customWidth="1" max="6" min="6" style="8" width="16.140625"/>
-    <col customWidth="1" max="8" min="7" style="7" width="12"/>
-    <col customWidth="1" max="58" min="9" style="7" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="59" style="7" width="11.42578125"/>
+    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="8" customWidth="1"/>
+    <col min="7" max="8" width="12" style="7" customWidth="1"/>
+    <col min="9" max="59" width="11.42578125" style="7" customWidth="1"/>
+    <col min="60" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="6" spans="1:6">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -606,68 +615,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>50</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>90</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>8000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -676,28 +685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="14.5703125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="17.85546875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="22.5703125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="17.28515625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="15.28515625"/>
-    <col customWidth="1" max="7" min="7" style="5" width="15.7109375"/>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="3" spans="1:7">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -720,32 +725,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="9" t="n"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" error="Esta celda solo acepta numeros" errorTitle="Solo Numeros" showErrorMessage="1" showInputMessage="1" sqref="A1:A4 A7:A9 A11:A1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Solo Numeros" error="Esta celda solo acepta numeros" sqref="A1:A4 A7:A9 A11:A1048576"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -753,30 +758,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="17.5703125"/>
-    <col customWidth="1" max="2" min="2" style="4" width="14.28515625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="21.28515625"/>
-    <col customWidth="1" max="4" min="4" style="4" width="21.140625"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15.140625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="27.7109375"/>
-    <col customWidth="1" max="7" min="7" style="5" width="26.85546875"/>
-    <col customWidth="1" max="8" min="8" style="5" width="31.5703125"/>
+    <col min="1" max="1" width="17.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33" r="1" s="3" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -805,16 +806,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="10" t="n"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:D1048576 D1 D3">
-    <cfRule dxfId="10" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Desktop\tutorial\mysite\polls\static\polls\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7680" activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="inventario" sheetId="1" r:id="rId1"/>
-    <sheet name="Entradas" sheetId="2" r:id="rId2"/>
-    <sheet name="Salidas" sheetId="3" r:id="rId3"/>
+    <sheet name="inventario" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Entradas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Salidas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Inventario">Tabla31[]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>CLASIF.EQUIP(ID)</t>
   </si>
@@ -44,10 +38,10 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Carro</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Carr</t>
   </si>
   <si>
     <t>90</t>
@@ -98,19 +92,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,39 +121,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -192,7 +187,7 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
+      <numFmt formatCode=";;;" numFmtId="164"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
@@ -249,67 +244,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla31" displayName="Tabla31" ref="A1:F3" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="27" displayName="Tabla31" headerRowCount="1" headerRowDxfId="28" id="1" name="Tabla31" ref="A1:F3" totalsRowDxfId="26">
   <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" name="Descripcion" dataDxfId="24"/>
-    <tableColumn id="3" name="Existencias Iniciales" dataDxfId="23"/>
-    <tableColumn id="4" name="Entradas" dataDxfId="22"/>
-    <tableColumn id="5" name="Salidas" dataDxfId="21"/>
-    <tableColumn id="6" name="Stock" totalsRowFunction="sum" dataDxfId="20"/>
+    <tableColumn dataDxfId="25" id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total"/>
+    <tableColumn dataDxfId="24" id="2" name="Descripcion"/>
+    <tableColumn dataDxfId="23" id="3" name="Existencias Iniciales"/>
+    <tableColumn dataDxfId="22" id="4" name="Entradas"/>
+    <tableColumn dataDxfId="21" id="5" name="Salidas"/>
+    <tableColumn dataDxfId="20" id="6" name="Stock" totalsRowFunction="sum"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Entradas" displayName="Entradas" ref="A1:G3" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="18" displayName="Entradas" headerRowCount="1" headerRowDxfId="19" id="2" name="Entradas" ref="A1:G3">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Num de Factura" totalsRowLabel="Total" dataDxfId="17"/>
-    <tableColumn id="2" name="Fecha" dataDxfId="16"/>
-    <tableColumn id="3" name="Codigo de Producto" dataDxfId="15"/>
-    <tableColumn id="4" name="Descripcion" dataDxfId="14"/>
-    <tableColumn id="5" name="Cantidad" totalsRowFunction="count" dataDxfId="13"/>
-    <tableColumn id="6" name="SERIE" dataDxfId="12"/>
-    <tableColumn id="7" name="OBSERVACIONES" dataDxfId="11"/>
+    <tableColumn dataDxfId="17" id="1" name="Num de Factura" totalsRowLabel="Total"/>
+    <tableColumn dataDxfId="16" id="2" name="Fecha"/>
+    <tableColumn dataDxfId="15" id="3" name="Codigo de Producto"/>
+    <tableColumn dataDxfId="14" id="4" name="Descripcion"/>
+    <tableColumn dataDxfId="13" id="5" name="Cantidad" totalsRowFunction="count"/>
+    <tableColumn dataDxfId="12" id="6" name="SERIE"/>
+    <tableColumn dataDxfId="11" id="7" name="OBSERVACIONES"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight12" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Salidas" displayName="Salidas" ref="A1:I3" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Salidas" headerRowCount="1" headerRowDxfId="9" id="3" name="Salidas" ref="A1:I3" totalsRowShown="0">
   <autoFilter ref="A1:I3"/>
   <sortState ref="A2:I3">
     <sortCondition ref="B1:B3"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Num de Factura" dataDxfId="8"/>
-    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="3" name="Codigo Producto" dataDxfId="6"/>
-    <tableColumn id="4" name="Descripcion(Producto)" dataDxfId="5"/>
-    <tableColumn id="5" name="Cantidad" dataDxfId="4"/>
-    <tableColumn id="6" name="OBSERVACIONES" dataDxfId="3"/>
-    <tableColumn id="7" name="DE O P/CLIENTE" dataDxfId="2"/>
-    <tableColumn id="8" name="TECNICO RECIBIO Y FIRMO SALIDA" dataDxfId="1"/>
-    <tableColumn id="9" name="Serie" dataDxfId="0"/>
+    <tableColumn dataDxfId="8" id="1" name="Num de Factura"/>
+    <tableColumn dataDxfId="7" id="2" name="Fecha"/>
+    <tableColumn dataDxfId="6" id="3" name="Codigo Producto"/>
+    <tableColumn dataDxfId="5" id="4" name="Descripcion(Producto)"/>
+    <tableColumn dataDxfId="4" id="5" name="Cantidad"/>
+    <tableColumn dataDxfId="3" id="6" name="OBSERVACIONES"/>
+    <tableColumn dataDxfId="2" id="7" name="DE O P/CLIENTE"/>
+    <tableColumn dataDxfId="1" id="8" name="TECNICO RECIBIO Y FIRMO SALIDA"/>
+    <tableColumn dataDxfId="0" id="9" name="Serie"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -575,27 +562,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="8" customWidth="1"/>
-    <col min="7" max="8" width="12" style="7" customWidth="1"/>
-    <col min="9" max="59" width="11.42578125" style="7" customWidth="1"/>
-    <col min="60" max="16384" width="11.42578125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="6" width="20.140625"/>
+    <col customWidth="1" max="2" min="2" style="8" width="39.85546875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="20.140625"/>
+    <col customWidth="1" max="4" min="4" style="8" width="12"/>
+    <col customWidth="1" max="5" min="5" style="8" width="14.42578125"/>
+    <col customWidth="1" max="6" min="6" style="8" width="16.140625"/>
+    <col customWidth="1" max="8" min="7" style="7" width="12"/>
+    <col customWidth="1" max="59" min="9" style="7" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="60" style="7" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="6" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -615,68 +606,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="7" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="7" t="n">
         <v>90</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>8000</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>8000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -685,24 +676,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="5" width="14.5703125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="17.85546875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="22.5703125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="17.28515625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="15.28515625"/>
+    <col customWidth="1" max="7" min="7" style="5" width="15.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="3" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -725,32 +720,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="9" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Solo Numeros" error="Esta celda solo acepta numeros" sqref="A1:A4 A7:A9 A11:A1048576"/>
+    <dataValidation allowBlank="0" error="Esta celda solo acepta numeros" errorTitle="Solo Numeros" showErrorMessage="1" showInputMessage="1" sqref="A1:A4 A7:A9 A11:A1048576"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -758,26 +753,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="17.5703125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="14.28515625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="21.28515625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="21.140625"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15.140625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="27.7109375"/>
+    <col customWidth="1" max="7" min="7" style="5" width="26.85546875"/>
+    <col customWidth="1" max="8" min="8" style="5" width="31.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33" r="1" s="3" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -806,16 +805,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:9">
+      <c r="B3" s="10" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:D1048576 D1 D3">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="inventario" sheetId="1" state="visible" r:id="rId1"/>
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -582,8 +582,8 @@
     <col customWidth="1" max="5" min="5" style="8" width="14.42578125"/>
     <col customWidth="1" max="6" min="6" style="8" width="16.140625"/>
     <col customWidth="1" max="8" min="7" style="7" width="12"/>
-    <col customWidth="1" max="59" min="9" style="7" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="60" style="7" width="11.42578125"/>
+    <col customWidth="1" max="60" min="9" style="7" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="61" style="7" width="11.42578125"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27.75" r="1" s="6" spans="1:6">
@@ -617,13 +617,13 @@
         <v>50</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -637,13 +637,13 @@
         <v>90</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -657,13 +657,13 @@
         <v>8000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8000</v>
+        <v>8005</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +683,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>

--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Desktop\tutorial\mysite\polls\static\polls\Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="inventario" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Entradas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Salidas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="inventario" sheetId="1" r:id="rId1"/>
+    <sheet name="Entradas" sheetId="2" r:id="rId2"/>
+    <sheet name="Salidas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Inventario">Tabla31[]</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>CLASIF.EQUIP(ID)</t>
   </si>
@@ -36,24 +42,6 @@
   </si>
   <si>
     <t>Stock</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Carr</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Ford Focus</t>
   </si>
   <si>
     <t>Num de Factura</t>
@@ -92,20 +80,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,39 +108,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -187,7 +174,7 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt formatCode=";;;" numFmtId="164"/>
+      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
@@ -244,59 +231,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="27" displayName="Tabla31" headerRowCount="1" headerRowDxfId="28" id="1" name="Tabla31" ref="A1:F3" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla31" displayName="Tabla31" ref="A1:F3" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn dataDxfId="25" id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total"/>
-    <tableColumn dataDxfId="24" id="2" name="Descripcion"/>
-    <tableColumn dataDxfId="23" id="3" name="Existencias Iniciales"/>
-    <tableColumn dataDxfId="22" id="4" name="Entradas"/>
-    <tableColumn dataDxfId="21" id="5" name="Salidas"/>
-    <tableColumn dataDxfId="20" id="6" name="Stock" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="2" name="Descripcion" dataDxfId="24"/>
+    <tableColumn id="3" name="Existencias Iniciales" dataDxfId="23"/>
+    <tableColumn id="4" name="Entradas" dataDxfId="22"/>
+    <tableColumn id="5" name="Salidas" dataDxfId="21"/>
+    <tableColumn id="6" name="Stock" totalsRowFunction="sum" dataDxfId="20"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="18" displayName="Entradas" headerRowCount="1" headerRowDxfId="19" id="2" name="Entradas" ref="A1:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Entradas" displayName="Entradas" ref="A1:G3" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn dataDxfId="17" id="1" name="Num de Factura" totalsRowLabel="Total"/>
-    <tableColumn dataDxfId="16" id="2" name="Fecha"/>
-    <tableColumn dataDxfId="15" id="3" name="Codigo de Producto"/>
-    <tableColumn dataDxfId="14" id="4" name="Descripcion"/>
-    <tableColumn dataDxfId="13" id="5" name="Cantidad" totalsRowFunction="count"/>
-    <tableColumn dataDxfId="12" id="6" name="SERIE"/>
-    <tableColumn dataDxfId="11" id="7" name="OBSERVACIONES"/>
+    <tableColumn id="1" name="Num de Factura" totalsRowLabel="Total" dataDxfId="17"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="16"/>
+    <tableColumn id="3" name="Codigo de Producto" dataDxfId="15"/>
+    <tableColumn id="4" name="Descripcion" dataDxfId="14"/>
+    <tableColumn id="5" name="Cantidad" totalsRowFunction="count" dataDxfId="13"/>
+    <tableColumn id="6" name="SERIE" dataDxfId="12"/>
+    <tableColumn id="7" name="OBSERVACIONES" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Salidas" headerRowCount="1" headerRowDxfId="9" id="3" name="Salidas" ref="A1:I3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Salidas" displayName="Salidas" ref="A1:I3" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:I3"/>
   <sortState ref="A2:I3">
     <sortCondition ref="B1:B3"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn dataDxfId="8" id="1" name="Num de Factura"/>
-    <tableColumn dataDxfId="7" id="2" name="Fecha"/>
-    <tableColumn dataDxfId="6" id="3" name="Codigo Producto"/>
-    <tableColumn dataDxfId="5" id="4" name="Descripcion(Producto)"/>
-    <tableColumn dataDxfId="4" id="5" name="Cantidad"/>
-    <tableColumn dataDxfId="3" id="6" name="OBSERVACIONES"/>
-    <tableColumn dataDxfId="2" id="7" name="DE O P/CLIENTE"/>
-    <tableColumn dataDxfId="1" id="8" name="TECNICO RECIBIO Y FIRMO SALIDA"/>
-    <tableColumn dataDxfId="0" id="9" name="Serie"/>
+    <tableColumn id="1" name="Num de Factura" dataDxfId="8"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="3" name="Codigo Producto" dataDxfId="6"/>
+    <tableColumn id="4" name="Descripcion(Producto)" dataDxfId="5"/>
+    <tableColumn id="5" name="Cantidad" dataDxfId="4"/>
+    <tableColumn id="6" name="OBSERVACIONES" dataDxfId="3"/>
+    <tableColumn id="7" name="DE O P/CLIENTE" dataDxfId="2"/>
+    <tableColumn id="8" name="TECNICO RECIBIO Y FIRMO SALIDA" dataDxfId="1"/>
+    <tableColumn id="9" name="Serie" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -562,31 +557,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="20.140625"/>
-    <col customWidth="1" max="2" min="2" style="8" width="39.85546875"/>
-    <col customWidth="1" max="3" min="3" style="8" width="20.140625"/>
-    <col customWidth="1" max="4" min="4" style="8" width="12"/>
-    <col customWidth="1" max="5" min="5" style="8" width="14.42578125"/>
-    <col customWidth="1" max="6" min="6" style="8" width="16.140625"/>
-    <col customWidth="1" max="8" min="7" style="7" width="12"/>
-    <col customWidth="1" max="60" min="9" style="7" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="61" style="7" width="11.42578125"/>
+    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="8" customWidth="1"/>
+    <col min="7" max="8" width="12" style="7" customWidth="1"/>
+    <col min="9" max="63" width="11.42578125" style="7" customWidth="1"/>
+    <col min="64" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="6" spans="1:6">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -606,68 +597,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8005</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -676,76 +623,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="14.5703125"/>
-    <col customWidth="1" max="2" min="2" style="5" width="17.85546875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="22.5703125"/>
-    <col customWidth="1" max="4" min="4" style="5" width="17.28515625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="15.28515625"/>
-    <col customWidth="1" max="7" min="7" style="5" width="15.7109375"/>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="3" spans="1:7">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="9" t="n"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="9"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="G20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" error="Esta celda solo acepta numeros" errorTitle="Solo Numeros" showErrorMessage="1" showInputMessage="1" sqref="A1:A4 A7:A9 A11:A1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Solo Numeros" error="Esta celda solo acepta numeros" sqref="A1:A4 A7:A9 A11:A1048576"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -753,68 +829,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="17.5703125"/>
-    <col customWidth="1" max="2" min="2" style="4" width="14.28515625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="21.28515625"/>
-    <col customWidth="1" max="4" min="4" style="4" width="21.140625"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15.140625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="27.7109375"/>
-    <col customWidth="1" max="7" min="7" style="5" width="26.85546875"/>
-    <col customWidth="1" max="8" min="8" style="5" width="31.5703125"/>
+    <col min="1" max="1" width="17.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33" r="1" s="3" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="10" t="n"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:D1048576 D1 D3">
-    <cfRule dxfId="10" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/polls/static/polls/Datos/Inventario.xlsx
+++ b/polls/static/polls/Datos/Inventario.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Desktop\tutorial\mysite\polls\static\polls\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7680"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7680" windowWidth="10170" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="inventario" sheetId="1" r:id="rId1"/>
-    <sheet name="Entradas" sheetId="2" r:id="rId2"/>
-    <sheet name="Salidas" sheetId="3" r:id="rId3"/>
+    <sheet name="inventario" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Entradas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Salidas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Inventario">Tabla31[]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>CLASIF.EQUIP(ID)</t>
   </si>
@@ -42,6 +36,387 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>lbem5</t>
+  </si>
+  <si>
+    <t>lite beam m5</t>
+  </si>
+  <si>
+    <t>ACGEN2</t>
+  </si>
+  <si>
+    <t>LITE BEAM AC GENERACIÓN 2</t>
+  </si>
+  <si>
+    <t>LOCO M5</t>
+  </si>
+  <si>
+    <t>LOCO NANOSTATION M5</t>
+  </si>
+  <si>
+    <t>LOCO M2</t>
+  </si>
+  <si>
+    <t>LOCO NANOSTATION M2</t>
+  </si>
+  <si>
+    <t>PBM5300</t>
+  </si>
+  <si>
+    <t>POWER BEAM 300</t>
+  </si>
+  <si>
+    <t>PBM2400</t>
+  </si>
+  <si>
+    <t>POWER BEAM M2400</t>
+  </si>
+  <si>
+    <t>PBM5400</t>
+  </si>
+  <si>
+    <t>POWER BEAM 5400</t>
+  </si>
+  <si>
+    <t>NANOBM213</t>
+  </si>
+  <si>
+    <t>NAO BEAM M2</t>
+  </si>
+  <si>
+    <t>RB941</t>
+  </si>
+  <si>
+    <t>HAP-LITE</t>
+  </si>
+  <si>
+    <t>RB-MAP 2N</t>
+  </si>
+  <si>
+    <t>ROUTERBOARD MAP 2N</t>
+  </si>
+  <si>
+    <t>RB951</t>
+  </si>
+  <si>
+    <t>RB-951UI-2HND</t>
+  </si>
+  <si>
+    <t>RB-912-VAG 5HPND</t>
+  </si>
+  <si>
+    <t>TARJETA MIKROTIK</t>
+  </si>
+  <si>
+    <t>RB922 UAGS-5HPACD</t>
+  </si>
+  <si>
+    <t>TARJETAS MIKROTIK AC</t>
+  </si>
+  <si>
+    <t>ROUTER 450 G</t>
+  </si>
+  <si>
+    <t>ROUTER 808287000514</t>
+  </si>
+  <si>
+    <t>ROUTER TP-LINK 2 ANTENAS</t>
+  </si>
+  <si>
+    <t>SXTG-2HND</t>
+  </si>
+  <si>
+    <t>RADIO SXT</t>
+  </si>
+  <si>
+    <t>SEXTANT 5HND</t>
+  </si>
+  <si>
+    <t>RADIO SEXTANT</t>
+  </si>
+  <si>
+    <t>LIGO PTP RAPID FIRE 5N</t>
+  </si>
+  <si>
+    <t>LIGO WAVE</t>
+  </si>
+  <si>
+    <t>WS-12-250-DC NETONIX</t>
+  </si>
+  <si>
+    <t>NETONIX 12 PUERTOS</t>
+  </si>
+  <si>
+    <t>JROUS JRC-29 EX MIMO PAR</t>
+  </si>
+  <si>
+    <t>JROUS-29</t>
+  </si>
+  <si>
+    <t>SEC-ROCKET-M5</t>
+  </si>
+  <si>
+    <t>ROCKET M5</t>
+  </si>
+  <si>
+    <t>SEC-ROCKET-M2</t>
+  </si>
+  <si>
+    <t>ROCKET M2</t>
+  </si>
+  <si>
+    <t>ROCKET 5AC PRISM</t>
+  </si>
+  <si>
+    <t>ROCKET PRISM</t>
+  </si>
+  <si>
+    <t>SH-TP5-40</t>
+  </si>
+  <si>
+    <t>CORNETA SECTOR  DE 40°</t>
+  </si>
+  <si>
+    <t>SH-TP5-50</t>
+  </si>
+  <si>
+    <t>CORNETA SECTOR  DE 50°</t>
+  </si>
+  <si>
+    <t>SH-TP5-30</t>
+  </si>
+  <si>
+    <t>CORNETA SECTOR  DE 30°</t>
+  </si>
+  <si>
+    <t>SH-TP5-60</t>
+  </si>
+  <si>
+    <t>CORNETA SECTOR  DE 60°</t>
+  </si>
+  <si>
+    <t>tp adaptador rm5</t>
+  </si>
+  <si>
+    <t>adaptador p/sector rocketm5</t>
+  </si>
+  <si>
+    <t>tp adaptador 5ac prism</t>
+  </si>
+  <si>
+    <t>adaptador p/sec prism</t>
+  </si>
+  <si>
+    <t>mimosa b5c 5ghz</t>
+  </si>
+  <si>
+    <t>mimosa b5c cuadrados</t>
+  </si>
+  <si>
+    <t>mimosa b5 lite</t>
+  </si>
+  <si>
+    <t>radio mimosa</t>
+  </si>
+  <si>
+    <t>router unific</t>
+  </si>
+  <si>
+    <t>JROUS JRC-24 EX MIMO PAR</t>
+  </si>
+  <si>
+    <t>j rous 24"</t>
+  </si>
+  <si>
+    <t>ccr1009</t>
+  </si>
+  <si>
+    <t>router board 1100 mokrotik</t>
+  </si>
+  <si>
+    <t>router 1100</t>
+  </si>
+  <si>
+    <t>router swich mikrotik cloun blanco</t>
+  </si>
+  <si>
+    <t>cloun coor swich</t>
+  </si>
+  <si>
+    <t>cloud core ccr 1016</t>
+  </si>
+  <si>
+    <t>cloud core</t>
+  </si>
+  <si>
+    <t>sector am56-17 ubiquity 90°</t>
+  </si>
+  <si>
+    <t>sector tabla 90°</t>
+  </si>
+  <si>
+    <t>sector am56-16 unbiquity 120°</t>
+  </si>
+  <si>
+    <t>sector tabla 120°</t>
+  </si>
+  <si>
+    <t>fuente de poder server dell guiber</t>
+  </si>
+  <si>
+    <t>fuente dell guiber</t>
+  </si>
+  <si>
+    <t>router 11ac</t>
+  </si>
+  <si>
+    <t>hex poe lite rb750 upr2</t>
+  </si>
+  <si>
+    <t>rb750 poe</t>
+  </si>
+  <si>
+    <t>rb 2011 yais-2hnd-in</t>
+  </si>
+  <si>
+    <t>rb 2011 rojos</t>
+  </si>
+  <si>
+    <t>rb 2011 uais-rm p/rack</t>
+  </si>
+  <si>
+    <t>rb 2011 grande</t>
+  </si>
+  <si>
+    <t>rb 3011 uais-rm</t>
+  </si>
+  <si>
+    <t>rb 3011</t>
+  </si>
+  <si>
+    <t>jumper sn316wsmai60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jumper sn </t>
+  </si>
+  <si>
+    <t>poe 24</t>
+  </si>
+  <si>
+    <t>poe</t>
+  </si>
+  <si>
+    <t>poe 4001</t>
+  </si>
+  <si>
+    <t>poe 24i</t>
+  </si>
+  <si>
+    <t>poe24i</t>
+  </si>
+  <si>
+    <t>poe tpdc dc12448gdhp5</t>
+  </si>
+  <si>
+    <t>procat 5e int.</t>
+  </si>
+  <si>
+    <t>cable utp interior</t>
+  </si>
+  <si>
+    <t>procat 5e ext.</t>
+  </si>
+  <si>
+    <t>cable exterior</t>
+  </si>
+  <si>
+    <t>procat 6</t>
+  </si>
+  <si>
+    <t>cable esterior categoria 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svr1819 caja interperie  </t>
+  </si>
+  <si>
+    <t>caja interperie gde.</t>
+  </si>
+  <si>
+    <t>omnitik upa-5hnd</t>
+  </si>
+  <si>
+    <t>omnitik sector</t>
+  </si>
+  <si>
+    <t>syg075 caja interperie</t>
+  </si>
+  <si>
+    <t>caja interperie chica</t>
+  </si>
+  <si>
+    <t>air cam mini ubiquiti</t>
+  </si>
+  <si>
+    <t>camaras mini</t>
+  </si>
+  <si>
+    <t>camara ncb541w</t>
+  </si>
+  <si>
+    <t>camara esterior</t>
+  </si>
+  <si>
+    <t>procesador 13-2100</t>
+  </si>
+  <si>
+    <t>soporte para camaras nanobraquet</t>
+  </si>
+  <si>
+    <t>soporte nanocamaras</t>
+  </si>
+  <si>
+    <t>dina dish 5</t>
+  </si>
+  <si>
+    <t>dinadish 6</t>
+  </si>
+  <si>
+    <t>dina dish 6</t>
+  </si>
+  <si>
+    <t>swich planet 8p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air fiver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">radios air fiver </t>
+  </si>
+  <si>
+    <t>netonix 24 puertos</t>
+  </si>
+  <si>
+    <t>antenas patch</t>
+  </si>
+  <si>
+    <t>fuente cargador 24 v metalico</t>
+  </si>
+  <si>
+    <t>fuente cargador 24v metalico</t>
+  </si>
+  <si>
+    <t>cargador de pilas shumager 12 amp</t>
+  </si>
+  <si>
+    <t>cargador de pila shumager 12 amp</t>
+  </si>
+  <si>
+    <t>cargador shumager 40 ampers</t>
+  </si>
+  <si>
+    <t>cargador 40 amper carrito</t>
   </si>
   <si>
     <t>Num de Factura</t>
@@ -80,19 +455,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,39 +484,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -174,7 +550,7 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
+      <numFmt formatCode=";;;" numFmtId="164"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
@@ -231,67 +607,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla31" displayName="Tabla31" ref="A1:F3" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="27" displayName="Tabla31" headerRowCount="1" headerRowDxfId="28" id="1" name="Tabla31" ref="A1:F3" totalsRowDxfId="26">
   <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="2" name="Descripcion" dataDxfId="24"/>
-    <tableColumn id="3" name="Existencias Iniciales" dataDxfId="23"/>
-    <tableColumn id="4" name="Entradas" dataDxfId="22"/>
-    <tableColumn id="5" name="Salidas" dataDxfId="21"/>
-    <tableColumn id="6" name="Stock" totalsRowFunction="sum" dataDxfId="20"/>
+    <tableColumn dataDxfId="25" id="1" name="CLASIF.EQUIP(ID)" totalsRowLabel="Total"/>
+    <tableColumn dataDxfId="24" id="2" name="Descripcion"/>
+    <tableColumn dataDxfId="23" id="3" name="Existencias Iniciales"/>
+    <tableColumn dataDxfId="22" id="4" name="Entradas"/>
+    <tableColumn dataDxfId="21" id="5" name="Salidas"/>
+    <tableColumn dataDxfId="20" id="6" name="Stock" totalsRowFunction="sum"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Entradas" displayName="Entradas" ref="A1:G3" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="18" displayName="Entradas" headerRowCount="1" headerRowDxfId="19" id="2" name="Entradas" ref="A1:G3">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Num de Factura" totalsRowLabel="Total" dataDxfId="17"/>
-    <tableColumn id="2" name="Fecha" dataDxfId="16"/>
-    <tableColumn id="3" name="Codigo de Producto" dataDxfId="15"/>
-    <tableColumn id="4" name="Descripcion" dataDxfId="14"/>
-    <tableColumn id="5" name="Cantidad" totalsRowFunction="count" dataDxfId="13"/>
-    <tableColumn id="6" name="SERIE" dataDxfId="12"/>
-    <tableColumn id="7" name="OBSERVACIONES" dataDxfId="11"/>
+    <tableColumn dataDxfId="17" id="1" name="Num de Factura" totalsRowLabel="Total"/>
+    <tableColumn dataDxfId="16" id="2" name="Fecha"/>
+    <tableColumn dataDxfId="15" id="3" name="Codigo de Producto"/>
+    <tableColumn dataDxfId="14" id="4" name="Descripcion"/>
+    <tableColumn dataDxfId="13" id="5" name="Cantidad" totalsRowFunction="count"/>
+    <tableColumn dataDxfId="12" id="6" name="SERIE"/>
+    <tableColumn dataDxfId="11" id="7" name="OBSERVACIONES"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight12" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Salidas" displayName="Salidas" ref="A1:I3" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Salidas" headerRowCount="1" headerRowDxfId="9" id="3" name="Salidas" ref="A1:I3" totalsRowShown="0">
   <autoFilter ref="A1:I3"/>
   <sortState ref="A2:I3">
     <sortCondition ref="B1:B3"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Num de Factura" dataDxfId="8"/>
-    <tableColumn id="2" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="3" name="Codigo Producto" dataDxfId="6"/>
-    <tableColumn id="4" name="Descripcion(Producto)" dataDxfId="5"/>
-    <tableColumn id="5" name="Cantidad" dataDxfId="4"/>
-    <tableColumn id="6" name="OBSERVACIONES" dataDxfId="3"/>
-    <tableColumn id="7" name="DE O P/CLIENTE" dataDxfId="2"/>
-    <tableColumn id="8" name="TECNICO RECIBIO Y FIRMO SALIDA" dataDxfId="1"/>
-    <tableColumn id="9" name="Serie" dataDxfId="0"/>
+    <tableColumn dataDxfId="8" id="1" name="Num de Factura"/>
+    <tableColumn dataDxfId="7" id="2" name="Fecha"/>
+    <tableColumn dataDxfId="6" id="3" name="Codigo Producto"/>
+    <tableColumn dataDxfId="5" id="4" name="Descripcion(Producto)"/>
+    <tableColumn dataDxfId="4" id="5" name="Cantidad"/>
+    <tableColumn dataDxfId="3" id="6" name="OBSERVACIONES"/>
+    <tableColumn dataDxfId="2" id="7" name="DE O P/CLIENTE"/>
+    <tableColumn dataDxfId="1" id="8" name="TECNICO RECIBIO Y FIRMO SALIDA"/>
+    <tableColumn dataDxfId="0" id="9" name="Serie"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -557,27 +925,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="8" customWidth="1"/>
-    <col min="7" max="8" width="12" style="7" customWidth="1"/>
-    <col min="9" max="63" width="11.42578125" style="7" customWidth="1"/>
-    <col min="64" max="16384" width="11.42578125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="6" width="20.140625"/>
+    <col customWidth="1" max="2" min="2" style="8" width="39.85546875"/>
+    <col customWidth="1" max="3" min="3" style="8" width="20.140625"/>
+    <col customWidth="1" max="4" min="4" style="8" width="12"/>
+    <col customWidth="1" max="5" min="5" style="8" width="14.42578125"/>
+    <col customWidth="1" max="6" min="6" style="8" width="16.140625"/>
+    <col customWidth="1" max="8" min="7" style="7" width="12"/>
+    <col customWidth="1" max="64" min="9" style="7" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="65" style="7" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="6" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -597,24 +969,1388 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -623,205 +2359,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="5" width="14.5703125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="17.85546875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="22.5703125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="17.28515625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="15.28515625"/>
+    <col customWidth="1" max="7" min="7" style="5" width="15.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="3" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8" s="9"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="G20"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="9" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Solo Numeros" error="Esta celda solo acepta numeros" sqref="A1:A4 A7:A9 A11:A1048576"/>
+    <dataValidation allowBlank="0" error="Esta celda solo acepta numeros" errorTitle="Solo Numeros" showErrorMessage="1" showInputMessage="1" sqref="A1:A4 A7:A9 A11:A1048576"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -829,64 +2436,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="17.5703125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="14.28515625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="21.28515625"/>
+    <col customWidth="1" max="4" min="4" style="4" width="21.140625"/>
+    <col customWidth="1" max="5" min="5" style="4" width="15.140625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="27.7109375"/>
+    <col customWidth="1" max="7" min="7" style="5" width="26.85546875"/>
+    <col customWidth="1" max="8" min="8" style="5" width="31.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33" r="1" s="3" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="10" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:D1048576 D1 D3">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
